--- a/datasheet.xlsx
+++ b/datasheet.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-22965" yWindow="0" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="メンバーリスト" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="予約状況" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="181029" fullCalcOnLoad="1"/>
@@ -16,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="游ゴシック"/>
       <charset val="128"/>
@@ -37,6 +38,14 @@
       <charset val="128"/>
       <family val="3"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -79,7 +88,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -92,6 +101,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -471,49 +486,50 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
-    <col width="11" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="27" customWidth="1" style="2" min="2" max="2"/>
+    <col width="23.5" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="20.5" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="36" customWidth="1" style="2" min="3" max="5"/>
     <col width="11" bestFit="1" customWidth="1" style="2" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>メンバー名</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Discord ID</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>予約１</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>予約２</t>
-        </is>
-      </c>
-      <c r="E1" s="0" t="inlineStr">
-        <is>
-          <t>予約３</t>
-        </is>
-      </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>予約1</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>予約2</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>予約3</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>残凸数</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>持越し</t>
         </is>
@@ -524,7 +540,7 @@
         </is>
       </c>
       <c r="J1" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -538,8 +554,11 @@
           <t>394565465478922252</t>
         </is>
       </c>
+      <c r="C2" s="7" t="n"/>
+      <c r="D2" s="7" t="n"/>
+      <c r="E2" s="7" t="n"/>
       <c r="F2" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -553,8 +572,11 @@
           <t>541246198141681665</t>
         </is>
       </c>
+      <c r="C3" s="7" t="n"/>
+      <c r="D3" s="7" t="n"/>
+      <c r="E3" s="7" t="n"/>
       <c r="F3" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
@@ -577,8 +599,11 @@
           <t>111012889644511232</t>
         </is>
       </c>
+      <c r="C4" s="7" t="n"/>
+      <c r="D4" s="7" t="n"/>
+      <c r="E4" s="7" t="n"/>
       <c r="F4" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
@@ -601,8 +626,11 @@
           <t>441766661498994688</t>
         </is>
       </c>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="7" t="n"/>
       <c r="F5" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
@@ -615,18 +643,25 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>だんぼー</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>704999712859881514</t>
+      <c r="A6" s="0" t="n"/>
+      <c r="B6" s="0" t="n"/>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>1,-</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>1,-</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>1,testmsg</t>
         </is>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
@@ -649,6 +684,9 @@
           <t>299599613076176896</t>
         </is>
       </c>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
       <c r="F7" s="0" t="n">
         <v>3</v>
       </c>
@@ -673,6 +711,9 @@
           <t>293250046487560196</t>
         </is>
       </c>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
       <c r="F8" s="0" t="n">
         <v>3</v>
       </c>
@@ -688,17 +729,13 @@
           <t>378767874178940928</t>
         </is>
       </c>
+      <c r="C9" s="7" t="n"/>
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
       <c r="F9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>現在</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" s="0" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -711,6 +748,9 @@
           <t>313700870170607616</t>
         </is>
       </c>
+      <c r="C10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
       <c r="F10" s="0" t="n">
         <v>3</v>
       </c>
@@ -726,6 +766,9 @@
           <t>265738579853049857</t>
         </is>
       </c>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
       <c r="F11" s="0" t="n">
         <v>3</v>
       </c>
@@ -741,6 +784,9 @@
           <t>557549594146373635</t>
         </is>
       </c>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
       <c r="F12" s="0" t="n">
         <v>3</v>
       </c>
@@ -756,6 +802,9 @@
           <t>458277258172563466</t>
         </is>
       </c>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
       <c r="F13" s="0" t="n">
         <v>3</v>
       </c>
@@ -771,6 +820,9 @@
           <t>386516024436195329</t>
         </is>
       </c>
+      <c r="C14" s="7" t="n"/>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
       <c r="F14" s="0" t="n">
         <v>3</v>
       </c>
@@ -786,6 +838,9 @@
           <t>403170247588184079</t>
         </is>
       </c>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
       <c r="F15" s="0" t="n">
         <v>3</v>
       </c>
@@ -801,6 +856,9 @@
           <t>467600780648644609</t>
         </is>
       </c>
+      <c r="C16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
       <c r="F16" s="0" t="n">
         <v>3</v>
       </c>
@@ -816,8 +874,14 @@
           <t>458171387597553664</t>
         </is>
       </c>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
       <c r="F17" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -831,8 +895,14 @@
           <t>505360958567481344</t>
         </is>
       </c>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
       <c r="F18" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -846,7 +916,13 @@
           <t>513733022588338191</t>
         </is>
       </c>
+      <c r="C19" s="7" t="n"/>
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="7" t="n"/>
       <c r="F19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -861,8 +937,14 @@
           <t>421623772727083008</t>
         </is>
       </c>
+      <c r="C20" s="7" t="n"/>
+      <c r="D20" s="7" t="n"/>
+      <c r="E20" s="7" t="n"/>
       <c r="F20" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -876,8 +958,14 @@
           <t>610036084050624534</t>
         </is>
       </c>
+      <c r="C21" s="7" t="n"/>
+      <c r="D21" s="7" t="n"/>
+      <c r="E21" s="7" t="n"/>
       <c r="F21" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -891,6 +979,9 @@
           <t>619513729347878913</t>
         </is>
       </c>
+      <c r="C22" s="7" t="n"/>
+      <c r="D22" s="7" t="n"/>
+      <c r="E22" s="7" t="n"/>
       <c r="F22" s="0" t="n">
         <v>3</v>
       </c>
@@ -906,6 +997,9 @@
           <t>617879045505417257</t>
         </is>
       </c>
+      <c r="C23" s="7" t="n"/>
+      <c r="D23" s="7" t="n"/>
+      <c r="E23" s="7" t="n"/>
       <c r="F23" s="0" t="n">
         <v>3</v>
       </c>
@@ -921,6 +1015,9 @@
           <t>584939535809511464</t>
         </is>
       </c>
+      <c r="C24" s="7" t="n"/>
+      <c r="D24" s="7" t="n"/>
+      <c r="E24" s="7" t="n"/>
       <c r="F24" s="0" t="n">
         <v>3</v>
       </c>
@@ -936,6 +1033,9 @@
           <t>627490808857100298</t>
         </is>
       </c>
+      <c r="C25" s="7" t="n"/>
+      <c r="D25" s="7" t="n"/>
+      <c r="E25" s="7" t="n"/>
       <c r="F25" s="0" t="n">
         <v>3</v>
       </c>
@@ -951,6 +1051,9 @@
           <t>727505639886291104</t>
         </is>
       </c>
+      <c r="C26" s="7" t="n"/>
+      <c r="D26" s="7" t="n"/>
+      <c r="E26" s="7" t="n"/>
       <c r="F26" s="0" t="n">
         <v>3</v>
       </c>
@@ -966,6 +1069,9 @@
           <t>213937582717927424</t>
         </is>
       </c>
+      <c r="C27" s="7" t="n"/>
+      <c r="D27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
       <c r="F27" s="0" t="n">
         <v>3</v>
       </c>
@@ -981,6 +1087,9 @@
           <t>727504770558066771</t>
         </is>
       </c>
+      <c r="C28" s="7" t="n"/>
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
       <c r="F28" s="0" t="n">
         <v>3</v>
       </c>
@@ -996,6 +1105,9 @@
           <t>358245876956659712</t>
         </is>
       </c>
+      <c r="C29" s="7" t="n"/>
+      <c r="D29" s="7" t="n"/>
+      <c r="E29" s="7" t="n"/>
       <c r="F29" s="0" t="n">
         <v>3</v>
       </c>
@@ -1011,6 +1123,9 @@
           <t>587295329884307468</t>
         </is>
       </c>
+      <c r="C30" s="7" t="n"/>
+      <c r="D30" s="7" t="n"/>
+      <c r="E30" s="7" t="n"/>
       <c r="F30" s="0" t="n">
         <v>3</v>
       </c>
@@ -1026,6 +1141,9 @@
           <t>290840641162838017</t>
         </is>
       </c>
+      <c r="C31" s="7" t="n"/>
+      <c r="D31" s="7" t="n"/>
+      <c r="E31" s="7" t="n"/>
       <c r="F31" s="0" t="n">
         <v>3</v>
       </c>
@@ -1053,4 +1171,22 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/datasheet.xlsx
+++ b/datasheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utsumi\Documents\Yunibot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1A5846-28B3-420D-A362-F708AE4A7203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EFAF37-E068-4D7D-9302-3FAE476F0CA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>メンバー名</t>
   </si>
@@ -46,181 +46,19 @@
     <t>現在のボス</t>
   </si>
   <si>
-    <t>setua</t>
-  </si>
-  <si>
-    <t>394565465478922252</t>
-  </si>
-  <si>
-    <t>しゃるる</t>
-  </si>
-  <si>
-    <t>541246198141681665</t>
-  </si>
-  <si>
     <t>1ボス予約</t>
   </si>
   <si>
-    <t>ハルサヤ</t>
-  </si>
-  <si>
-    <t>111012889644511232</t>
-  </si>
-  <si>
     <t>2ボス予約</t>
   </si>
   <si>
-    <t>よみいのりん</t>
-  </si>
-  <si>
-    <t>441766661498994688</t>
-  </si>
-  <si>
     <t>3ボス予約</t>
   </si>
   <si>
-    <t>aMu</t>
-  </si>
-  <si>
-    <t>739050289293688874</t>
-  </si>
-  <si>
     <t>4ボス予約</t>
   </si>
   <si>
-    <t>よ、</t>
-  </si>
-  <si>
-    <t>725644925424631829</t>
-  </si>
-  <si>
     <t>5ボス予約</t>
-  </si>
-  <si>
-    <t>くま</t>
-  </si>
-  <si>
-    <t>718062568614396006</t>
-  </si>
-  <si>
-    <t>ラジアタ</t>
-  </si>
-  <si>
-    <t>378767874178940928</t>
-  </si>
-  <si>
-    <t>tako</t>
-  </si>
-  <si>
-    <t>726483871427985489</t>
-  </si>
-  <si>
-    <t>青いフレンチクルーラー</t>
-  </si>
-  <si>
-    <t>265738579853049857</t>
-  </si>
-  <si>
-    <t>こころん</t>
-  </si>
-  <si>
-    <t>557549594146373635</t>
-  </si>
-  <si>
-    <t>kuroyan</t>
-  </si>
-  <si>
-    <t>458277258172563466</t>
-  </si>
-  <si>
-    <t>K･T</t>
-  </si>
-  <si>
-    <t>386516024436195329</t>
-  </si>
-  <si>
-    <t>ray</t>
-  </si>
-  <si>
-    <t>403170247588184079</t>
-  </si>
-  <si>
-    <t>UG</t>
-  </si>
-  <si>
-    <t>467600780648644609</t>
-  </si>
-  <si>
-    <t>あいりす</t>
-  </si>
-  <si>
-    <t>458171387597553664</t>
-  </si>
-  <si>
-    <t>あぐもん</t>
-  </si>
-  <si>
-    <t>505360958567481344</t>
-  </si>
-  <si>
-    <t>しゃんだるふぉん</t>
-  </si>
-  <si>
-    <t>513733022588338191</t>
-  </si>
-  <si>
-    <t>にし</t>
-  </si>
-  <si>
-    <t>421623772727083008</t>
-  </si>
-  <si>
-    <t>のりのり</t>
-  </si>
-  <si>
-    <t>619513729347878913</t>
-  </si>
-  <si>
-    <t>ほげ</t>
-  </si>
-  <si>
-    <t>584939535809511464</t>
-  </si>
-  <si>
-    <t>もころし</t>
-  </si>
-  <si>
-    <t>627490808857100298</t>
-  </si>
-  <si>
-    <t>チュチュ</t>
-  </si>
-  <si>
-    <t>727505639886291104</t>
-  </si>
-  <si>
-    <t>ディフ</t>
-  </si>
-  <si>
-    <t>213937582717927424</t>
-  </si>
-  <si>
-    <t>ドギ</t>
-  </si>
-  <si>
-    <t>727504770558066771</t>
-  </si>
-  <si>
-    <t>Takumi</t>
-  </si>
-  <si>
-    <t>587295329884307468</t>
-  </si>
-  <si>
-    <t>なむ</t>
-  </si>
-  <si>
-    <t>290840641162838017</t>
   </si>
   <si>
     <t>クラン合計</t>
@@ -632,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -676,28 +514,20 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="F2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5"/>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="J3" s="2">
         <f>COUNTIF(C2:E31, 1)</f>
@@ -705,17 +535,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="5"/>
       <c r="F4" s="2">
         <v>3</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J4" s="2">
         <f>COUNTIF(C2:E31, 2)</f>
@@ -723,17 +549,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="5"/>
       <c r="F5" s="2">
         <v>3</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2">
         <f>COUNTIF(C2:E31, 3)</f>
@@ -741,17 +563,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="5"/>
       <c r="F6" s="2">
         <v>3</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J6" s="2">
         <f>COUNTIF(C2:E31, 4)</f>
@@ -759,17 +577,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="5"/>
       <c r="F7" s="2">
         <v>3</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J7" s="2">
         <f>COUNTIF(C2:E31, 5)</f>
@@ -777,145 +591,93 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="5"/>
       <c r="F8" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="5"/>
       <c r="F9" s="2">
         <v>3</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="5"/>
       <c r="F10" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="5"/>
       <c r="F11" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="5"/>
       <c r="F12" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="F13" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
       <c r="F14" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
       <c r="F15" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
       <c r="F16" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="5"/>
       <c r="F17" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="5"/>
       <c r="F18" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="5"/>
       <c r="F19" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="5"/>
       <c r="F20" s="2">
         <v>3</v>
       </c>
@@ -926,14 +688,11 @@
       <c r="F21" s="2">
         <v>3</v>
       </c>
+      <c r="G21"/>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="5"/>
       <c r="F22" s="2">
         <v>3</v>
       </c>
@@ -946,56 +705,36 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="5"/>
       <c r="F24" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="5"/>
       <c r="F25" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="5"/>
       <c r="F26" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="5"/>
       <c r="F27" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="5"/>
       <c r="F28" s="2">
         <v>3</v>
       </c>
@@ -1008,30 +747,22 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
       <c r="F30" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="5"/>
       <c r="F31" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>

--- a/datasheet.xlsx
+++ b/datasheet.xlsx
@@ -9,7 +9,7 @@
     <sheet name="メンバーリスト" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -503,7 +503,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -555,7 +555,7 @@
       </c>
       <c r="H1" s="11" t="inlineStr">
         <is>
-          <t>持越しメッセージ</t>
+          <t>持越し詳細</t>
         </is>
       </c>
       <c r="I1" s="9" t="inlineStr">
@@ -578,106 +578,85 @@
           <t>325177738921115648</t>
         </is>
       </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>4,予約コメント</t>
+        </is>
+      </c>
       <c r="F2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>80s,物理,これはテストコメントです</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" s="1">
       <c r="A3" s="10" t="inlineStr">
         <is>
-          <t>あ</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>testmsg</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>1ボス予約</t>
-        </is>
-      </c>
-      <c r="J3" s="2">
-        <f>COUNTIF(C2:E31, 1)</f>
-        <v/>
-      </c>
+          <t>41s,ニャル,これはテストコメントです</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="n"/>
     </row>
     <row r="4" ht="18.75" customHeight="1" s="1">
       <c r="A4" s="10" t="inlineStr">
         <is>
-          <t>い</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B4" s="5" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>testmsg</t>
-        </is>
-      </c>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>2ボス予約</t>
-        </is>
-      </c>
-      <c r="J4" s="2">
-        <f>COUNTIF(C2:E31, 2)</f>
-        <v/>
-      </c>
+          <t>42s,魔法,これはテストコメントです</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1" s="1">
       <c r="A5" s="10" t="inlineStr">
         <is>
-          <t>あ</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B5" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>testmsg</t>
-        </is>
-      </c>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>3ボス予約</t>
-        </is>
-      </c>
-      <c r="J5" s="2">
-        <f>COUNTIF(C2:E31, 3)</f>
-        <v/>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" s="5" t="n"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" s="1">
       <c r="A6" s="10" t="inlineStr">
         <is>
-          <t>い</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B6" s="5" t="n">
@@ -686,360 +665,363 @@
       <c r="F6" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>testmsg</t>
-        </is>
-      </c>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>4ボス予約</t>
-        </is>
-      </c>
-      <c r="J6" s="2">
-        <f>COUNTIF(C2:E31, 4)</f>
-        <v/>
-      </c>
+      <c r="I6" s="5" t="n"/>
     </row>
     <row r="7" ht="18.75" customHeight="1" s="1">
       <c r="A7" s="10" t="inlineStr">
         <is>
-          <t>あ</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B7" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4,予約コメント</t>
+        </is>
+      </c>
       <c r="F7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>5ボス予約</t>
-        </is>
-      </c>
-      <c r="J7" s="2">
-        <f>COUNTIF(C2:E31, 5)</f>
-        <v/>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" s="5" t="n"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" s="1">
       <c r="A8" s="10" t="inlineStr">
         <is>
-          <t>い</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B8" s="5" t="n">
         <v>6</v>
       </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3,予約コメント</t>
+        </is>
+      </c>
       <c r="F8" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1" s="1">
       <c r="A9" s="10" t="inlineStr">
         <is>
-          <t>あ</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B9" s="5" t="n">
         <v>7</v>
       </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1,予約コメント</t>
+        </is>
+      </c>
       <c r="F9" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9" s="2" t="n"/>
     </row>
     <row r="10" ht="18.75" customHeight="1" s="1">
       <c r="A10" s="10" t="inlineStr">
         <is>
-          <t>い</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B10" s="5" t="n">
         <v>8</v>
       </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2,予約コメント</t>
+        </is>
+      </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1" s="1">
       <c r="A11" s="10" t="inlineStr">
         <is>
-          <t>あ</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B11" s="5" t="n">
         <v>9</v>
       </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3,予約コメント</t>
+        </is>
+      </c>
       <c r="F11" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1" s="1">
       <c r="A12" s="10" t="inlineStr">
         <is>
-          <t>い</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B12" s="5" t="n">
         <v>10</v>
       </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4,予約コメント</t>
+        </is>
+      </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1" s="1">
       <c r="A13" s="10" t="inlineStr">
         <is>
-          <t>あ</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B13" s="5" t="n">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1" s="1">
       <c r="A14" s="10" t="inlineStr">
         <is>
-          <t>い</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B14" s="5" t="n">
         <v>12</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1" s="1">
       <c r="A15" s="10" t="inlineStr">
         <is>
-          <t>あ</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B15" s="5" t="n">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1" s="1">
       <c r="A16" s="10" t="inlineStr">
         <is>
-          <t>い</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B16" s="5" t="n">
         <v>14</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1" s="1">
       <c r="A17" s="10" t="inlineStr">
         <is>
-          <t>あ</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B17" s="5" t="n">
         <v>15</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1" s="1">
       <c r="A18" s="10" t="inlineStr">
         <is>
-          <t>い</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B18" s="5" t="n">
         <v>16</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1" s="1">
       <c r="A19" s="10" t="inlineStr">
         <is>
-          <t>あ</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B19" s="5" t="n">
         <v>17</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1" s="1">
       <c r="A20" s="10" t="inlineStr">
         <is>
-          <t>い</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B20" s="5" t="n">
         <v>18</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1" s="1">
       <c r="A21" s="10" t="inlineStr">
         <is>
-          <t>あ</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B21" s="5" t="n">
         <v>19</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1" s="1">
       <c r="A22" s="10" t="inlineStr">
         <is>
-          <t>い</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B22" s="5" t="n">
         <v>20</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1" s="1">
       <c r="A23" s="10" t="inlineStr">
         <is>
-          <t>あ</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B23" s="5" t="n">
         <v>21</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1" s="1">
       <c r="A24" s="10" t="inlineStr">
         <is>
-          <t>い</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B24" s="5" t="n">
         <v>22</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1" s="1">
       <c r="A25" s="10" t="inlineStr">
         <is>
-          <t>あ</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B25" s="5" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" ht="18.75" customHeight="1" s="1">
       <c r="A26" s="10" t="inlineStr">
         <is>
-          <t>い</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B26" s="5" t="n">
         <v>24</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1" s="1">
       <c r="A27" s="10" t="inlineStr">
         <is>
-          <t>あ</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B27" s="5" t="n">
         <v>25</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1" s="1">
       <c r="A28" s="10" t="inlineStr">
         <is>
-          <t>い</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B28" s="5" t="n">
         <v>26</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="1" s="1">
       <c r="A29" s="10" t="inlineStr">
         <is>
-          <t>あ</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B29" s="5" t="n">
         <v>27</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" ht="18.75" customHeight="1" s="1">
       <c r="A30" s="10" t="inlineStr">
         <is>
-          <t>い</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B30" s="5" t="n">
         <v>28</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" ht="18.75" customHeight="1" s="1">
       <c r="A31" s="10" t="inlineStr">
         <is>
-          <t>あ</t>
+          <t>dummyusr</t>
         </is>
       </c>
       <c r="B31" s="5" t="n">
         <v>29</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" ht="18.75" customHeight="1" s="1">
